--- a/uploads/2024/Oct/Oct_leave_report.xlsx
+++ b/uploads/2024/Oct/Oct_leave_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="76">
   <si>
     <t>Leave Plan for the Month of October 2024</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Thursday, 31 October, 2024</t>
   </si>
 </sst>
 </file>
@@ -708,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD34"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -3577,98 +3574,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD35" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -3677,7 +3582,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -4128,20 +4033,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
